--- a/Robot Board v003 BOM v2.xlsx
+++ b/Robot Board v003 BOM v2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="83">
   <si>
     <t>Item #</t>
   </si>
@@ -256,6 +256,15 @@
   </si>
   <si>
     <t>mot-00004</t>
+  </si>
+  <si>
+    <t>Wheel Pair</t>
+  </si>
+  <si>
+    <t>pololu.com</t>
+  </si>
+  <si>
+    <t>http://www.pololu.com/product/1090</t>
   </si>
 </sst>
 </file>
@@ -381,7 +390,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -522,6 +531,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -817,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -890,7 +900,7 @@
         <v>3.75</v>
       </c>
       <c r="F2" s="6">
-        <f>C2*E2</f>
+        <f t="shared" ref="F2:F23" si="0">C2*E2</f>
         <v>37.5</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -903,7 +913,7 @@
         <v>11</v>
       </c>
       <c r="J2" s="5">
-        <f>A2</f>
+        <f t="shared" ref="J2:J23" si="1">A2</f>
         <v>1</v>
       </c>
       <c r="K2" s="7" t="s">
@@ -927,7 +937,7 @@
         <v>11.05</v>
       </c>
       <c r="F3" s="54">
-        <f>C3*E3</f>
+        <f t="shared" si="0"/>
         <v>110.5</v>
       </c>
       <c r="G3" s="28" t="s">
@@ -940,7 +950,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="50">
-        <f>A3</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K3" s="29" t="s">
@@ -964,7 +974,7 @@
         <v>2.35</v>
       </c>
       <c r="F4" s="54">
-        <f>C4*E4</f>
+        <f t="shared" si="0"/>
         <v>23.5</v>
       </c>
       <c r="G4" s="54" t="s">
@@ -977,7 +987,7 @@
         <v>11</v>
       </c>
       <c r="J4" s="50">
-        <f>A4</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K4" s="56" t="s">
@@ -1001,7 +1011,7 @@
         <v>10.050000000000001</v>
       </c>
       <c r="F5" s="54">
-        <f>C5*E5</f>
+        <f t="shared" si="0"/>
         <v>201</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -1014,7 +1024,7 @@
         <v>11</v>
       </c>
       <c r="J5" s="66">
-        <f>A5</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K5" s="56" t="s">
@@ -1038,7 +1048,7 @@
         <v>3.85</v>
       </c>
       <c r="F6" s="54">
-        <f>C6*E6</f>
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="G6" s="54" t="s">
@@ -1051,7 +1061,7 @@
         <v>11</v>
       </c>
       <c r="J6" s="66">
-        <f>A6</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K6" s="9" t="s">
@@ -1075,7 +1085,7 @@
         <v>17.399999999999999</v>
       </c>
       <c r="F7" s="54">
-        <f>C7*E7</f>
+        <f t="shared" si="0"/>
         <v>17.399999999999999</v>
       </c>
       <c r="G7" s="54" t="s">
@@ -1088,7 +1098,7 @@
         <v>47</v>
       </c>
       <c r="J7" s="50">
-        <f>A7</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K7" s="13" t="s">
@@ -1112,7 +1122,7 @@
         <v>0.40239999999999998</v>
       </c>
       <c r="F8" s="54">
-        <f>C8*E8</f>
+        <f t="shared" si="0"/>
         <v>4.024</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -1125,7 +1135,7 @@
         <v>15</v>
       </c>
       <c r="J8" s="50">
-        <f>A8</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K8" s="71" t="s">
@@ -1149,7 +1159,7 @@
         <v>0.12529999999999999</v>
       </c>
       <c r="F9" s="54">
-        <f>C9*E9</f>
+        <f t="shared" si="0"/>
         <v>12.53</v>
       </c>
       <c r="G9" s="49" t="s">
@@ -1162,7 +1172,7 @@
         <v>15</v>
       </c>
       <c r="J9" s="50">
-        <f>A9</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="K9" s="15" t="s">
@@ -1186,7 +1196,7 @@
         <v>0.2</v>
       </c>
       <c r="F10" s="54">
-        <f>C10*E10</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G10" s="54" t="s">
@@ -1199,7 +1209,7 @@
         <v>15</v>
       </c>
       <c r="J10" s="50">
-        <f>A10</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="K10" s="18" t="s">
@@ -1223,7 +1233,7 @@
         <v>3.8240000000000003E-2</v>
       </c>
       <c r="F11" s="54">
-        <f>C11*E11</f>
+        <f t="shared" si="0"/>
         <v>3.8240000000000003</v>
       </c>
       <c r="G11" s="19" t="s">
@@ -1236,7 +1246,7 @@
         <v>15</v>
       </c>
       <c r="J11" s="50">
-        <f>A11</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="K11" s="20" t="s">
@@ -1260,7 +1270,7 @@
         <v>0.37469999999999998</v>
       </c>
       <c r="F12" s="54">
-        <f>C12*E12</f>
+        <f t="shared" si="0"/>
         <v>18.734999999999999</v>
       </c>
       <c r="G12" s="69" t="s">
@@ -1273,7 +1283,7 @@
         <v>15</v>
       </c>
       <c r="J12" s="50">
-        <f>A12</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="K12" s="58" t="s">
@@ -1297,7 +1307,7 @@
         <v>2.47E-2</v>
       </c>
       <c r="F13" s="54">
-        <f>C13*E13</f>
+        <f t="shared" si="0"/>
         <v>2.4699999999999998</v>
       </c>
       <c r="G13" s="49" t="s">
@@ -1310,7 +1320,7 @@
         <v>15</v>
       </c>
       <c r="J13" s="50">
-        <f>A13</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="K13" s="25" t="s">
@@ -1334,7 +1344,7 @@
         <v>0.54759999999999998</v>
       </c>
       <c r="F14" s="54">
-        <f>C14*E14</f>
+        <f t="shared" si="0"/>
         <v>5.476</v>
       </c>
       <c r="G14" s="54" t="s">
@@ -1347,7 +1357,7 @@
         <v>15</v>
       </c>
       <c r="J14" s="50">
-        <f>A14</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="K14" s="37" t="s">
@@ -1372,7 +1382,7 @@
         <v>2.56</v>
       </c>
       <c r="F15" s="54">
-        <f>C15*E15</f>
+        <f t="shared" si="0"/>
         <v>25.6</v>
       </c>
       <c r="G15" s="48" t="s">
@@ -1385,7 +1395,7 @@
         <v>15</v>
       </c>
       <c r="J15" s="50">
-        <f>A15</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="K15" s="56" t="s">
@@ -1409,7 +1419,7 @@
         <v>0.6</v>
       </c>
       <c r="F16" s="54">
-        <f>C16*E16</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G16" s="54" t="s">
@@ -1422,7 +1432,7 @@
         <v>15</v>
       </c>
       <c r="J16" s="50">
-        <f>A16</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="K16" s="34" t="s">
@@ -1446,7 +1456,7 @@
         <v>0.2016</v>
       </c>
       <c r="F17" s="54">
-        <f>C17*E17</f>
+        <f t="shared" si="0"/>
         <v>2.016</v>
       </c>
       <c r="G17" s="48" t="s">
@@ -1459,7 +1469,7 @@
         <v>15</v>
       </c>
       <c r="J17" s="50">
-        <f>A17</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="K17" s="40" t="s">
@@ -1483,7 +1493,7 @@
         <v>0.72</v>
       </c>
       <c r="F18" s="54">
-        <f>C18*E18</f>
+        <f t="shared" si="0"/>
         <v>7.1999999999999993</v>
       </c>
       <c r="G18" s="48" t="s">
@@ -1496,7 +1506,7 @@
         <v>15</v>
       </c>
       <c r="J18" s="50">
-        <f>A18</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="K18" s="56" t="s">
@@ -1520,7 +1530,7 @@
         <v>0.94399999999999995</v>
       </c>
       <c r="F19" s="54">
-        <f>C19*E19</f>
+        <f t="shared" si="0"/>
         <v>9.44</v>
       </c>
       <c r="G19" s="43" t="s">
@@ -1533,7 +1543,7 @@
         <v>15</v>
       </c>
       <c r="J19" s="50">
-        <f>A19</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="K19" s="44" t="s">
@@ -1557,7 +1567,7 @@
         <v>0.99199999999999999</v>
       </c>
       <c r="F20" s="54">
-        <f>C20*E20</f>
+        <f t="shared" si="0"/>
         <v>9.92</v>
       </c>
       <c r="G20" s="48" t="s">
@@ -1570,7 +1580,7 @@
         <v>15</v>
       </c>
       <c r="J20" s="50">
-        <f>A20</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="K20" s="56" t="s">
@@ -1594,7 +1604,7 @@
         <v>0.192</v>
       </c>
       <c r="F21" s="54">
-        <f>C21*E21</f>
+        <f t="shared" si="0"/>
         <v>1.92</v>
       </c>
       <c r="G21" s="48" t="s">
@@ -1607,7 +1617,7 @@
         <v>15</v>
       </c>
       <c r="J21" s="50">
-        <f>A21</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="K21" s="56" t="s">
@@ -1631,7 +1641,7 @@
         <v>0.498</v>
       </c>
       <c r="F22" s="54">
-        <f>C22*E22</f>
+        <f t="shared" si="0"/>
         <v>4.9800000000000004</v>
       </c>
       <c r="G22" s="54" t="s">
@@ -1644,7 +1654,7 @@
         <v>15</v>
       </c>
       <c r="J22" s="50">
-        <f>A22</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="K22" s="56" t="s">
@@ -1668,7 +1678,7 @@
         <v>48.28</v>
       </c>
       <c r="F23" s="54">
-        <f>C23*E23</f>
+        <f t="shared" si="0"/>
         <v>48.28</v>
       </c>
       <c r="G23" s="54" t="s">
@@ -1679,11 +1689,48 @@
         <v>74</v>
       </c>
       <c r="J23" s="66">
-        <f>A23</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="K23" s="67" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="45" customFormat="1">
+      <c r="A24" s="50">
+        <v>23</v>
+      </c>
+      <c r="B24" s="66">
+        <v>1</v>
+      </c>
+      <c r="C24" s="72">
+        <v>10</v>
+      </c>
+      <c r="D24" s="48">
+        <v>6.98</v>
+      </c>
+      <c r="E24" s="48">
+        <v>5.5</v>
+      </c>
+      <c r="F24" s="54">
+        <f t="shared" ref="F24" si="2">C24*E24</f>
+        <v>55</v>
+      </c>
+      <c r="G24" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="74">
+        <v>1090</v>
+      </c>
+      <c r="I24" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="J24" s="66">
+        <f t="shared" ref="J24" si="3">A24</f>
+        <v>23</v>
+      </c>
+      <c r="K24" s="67" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1708,8 +1755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2318,12 +2365,31 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
+      <c r="A24" s="50">
+        <f>BOM!B24</f>
+        <v>1</v>
+      </c>
+      <c r="B24" s="50">
+        <f>BOM!D24</f>
+        <v>6.98</v>
+      </c>
+      <c r="C24" s="48">
+        <f t="shared" ref="C24" si="2">A24*B24</f>
+        <v>6.98</v>
+      </c>
+      <c r="D24" s="45"/>
+      <c r="E24" s="65">
+        <f>BOM!C24</f>
+        <v>10</v>
+      </c>
+      <c r="F24" s="48">
+        <f>BOM!E24</f>
+        <v>5.5</v>
+      </c>
+      <c r="G24" s="48">
+        <f t="shared" ref="G24" si="3">E24*F24</f>
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="50"/>
@@ -2331,16 +2397,16 @@
         <v>68</v>
       </c>
       <c r="C25" s="63">
-        <f>SUM(C2:C23)</f>
-        <v>67.105000000000004</v>
+        <f>SUM(C2:C24)</f>
+        <v>74.085000000000008</v>
       </c>
       <c r="E25" s="48"/>
       <c r="F25" s="63" t="s">
         <v>3</v>
       </c>
       <c r="G25" s="63">
-        <f>SUM(G2:G23)</f>
-        <v>631.31500000000005</v>
+        <f>SUM(G2:G24)</f>
+        <v>686.31500000000005</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2350,7 +2416,7 @@
       </c>
       <c r="G26" s="63">
         <f>G25/10</f>
-        <v>63.131500000000003</v>
+        <v>68.631500000000003</v>
       </c>
     </row>
   </sheetData>

--- a/Robot Board v003 BOM v2.xlsx
+++ b/Robot Board v003 BOM v2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="86">
   <si>
     <t>Item #</t>
   </si>
@@ -261,10 +261,19 @@
     <t>Wheel Pair</t>
   </si>
   <si>
-    <t>pololu.com</t>
-  </si>
-  <si>
-    <t>http://www.pololu.com/product/1090</t>
+    <t>ACS-00006</t>
+  </si>
+  <si>
+    <t>http://www.acrobotic.com/acs-00006.html</t>
+  </si>
+  <si>
+    <t>Caster</t>
+  </si>
+  <si>
+    <t>ACS-00005</t>
+  </si>
+  <si>
+    <t>http://www.acrobotic.com/acs-00005.html</t>
   </si>
 </sst>
 </file>
@@ -390,7 +399,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -409,13 +418,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -426,8 +428,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -435,9 +435,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -459,18 +456,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -517,14 +509,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -532,6 +517,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -827,19 +820,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="55" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="46" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="7" style="45" customWidth="1"/>
+    <col min="5" max="5" width="7" style="36" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" customWidth="1"/>
     <col min="7" max="7" width="40.7109375" customWidth="1"/>
     <col min="8" max="8" width="19.5703125" customWidth="1"/>
@@ -849,19 +842,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="45">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="50" t="s">
         <v>72</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="37" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -884,36 +877,36 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="50">
+      <c r="A2" s="41">
         <v>1</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="72">
+      <c r="C2" s="60">
         <v>10</v>
       </c>
       <c r="D2" s="6">
         <v>4.25</v>
       </c>
-      <c r="E2" s="54">
+      <c r="E2" s="45">
         <v>3.75</v>
       </c>
       <c r="F2" s="6">
-        <f t="shared" ref="F2:F23" si="0">C2*E2</f>
+        <f>C2*E2</f>
         <v>37.5</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J2" s="5">
-        <f t="shared" ref="J2:J23" si="1">A2</f>
+        <f>A2</f>
         <v>1</v>
       </c>
       <c r="K2" s="7" t="s">
@@ -921,147 +914,147 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="50">
+      <c r="A3" s="41">
         <v>2</v>
       </c>
-      <c r="B3" s="27">
-        <v>1</v>
-      </c>
-      <c r="C3" s="72">
-        <v>10</v>
-      </c>
-      <c r="D3" s="28">
+      <c r="B3" s="21">
+        <v>1</v>
+      </c>
+      <c r="C3" s="60">
+        <v>10</v>
+      </c>
+      <c r="D3" s="22">
         <v>11.99</v>
       </c>
-      <c r="E3" s="54">
+      <c r="E3" s="45">
         <v>11.05</v>
       </c>
-      <c r="F3" s="54">
-        <f t="shared" si="0"/>
+      <c r="F3" s="45">
+        <f>C3*E3</f>
         <v>110.5</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="50">
-        <f t="shared" si="1"/>
+      <c r="J3" s="41">
+        <f>A3</f>
         <v>2</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="45" customFormat="1">
-      <c r="A4" s="50">
+    <row r="4" spans="1:12" s="36" customFormat="1">
+      <c r="A4" s="41">
         <v>3</v>
       </c>
-      <c r="B4" s="50">
-        <v>1</v>
-      </c>
-      <c r="C4" s="72">
-        <v>10</v>
-      </c>
-      <c r="D4" s="54">
+      <c r="B4" s="41">
+        <v>1</v>
+      </c>
+      <c r="C4" s="60">
+        <v>10</v>
+      </c>
+      <c r="D4" s="45">
         <v>2.5</v>
       </c>
-      <c r="E4" s="54">
+      <c r="E4" s="45">
         <v>2.35</v>
       </c>
-      <c r="F4" s="54">
-        <f t="shared" si="0"/>
+      <c r="F4" s="45">
+        <f>C4*E4</f>
         <v>23.5</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="50">
-        <f t="shared" si="1"/>
+      <c r="J4" s="41">
+        <f>A4</f>
         <v>3</v>
       </c>
-      <c r="K4" s="56" t="s">
+      <c r="K4" s="47" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="50">
+      <c r="A5" s="41">
         <v>4</v>
       </c>
-      <c r="B5" s="66">
+      <c r="B5" s="57">
         <v>2</v>
       </c>
-      <c r="C5" s="72">
+      <c r="C5" s="60">
         <v>20</v>
       </c>
       <c r="D5" s="8">
         <v>10.95</v>
       </c>
-      <c r="E5" s="54">
+      <c r="E5" s="45">
         <v>10.050000000000001</v>
       </c>
-      <c r="F5" s="54">
-        <f t="shared" si="0"/>
+      <c r="F5" s="45">
+        <f>C5*E5</f>
         <v>201</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="48" t="s">
+      <c r="H5" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="53" t="s">
+      <c r="I5" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="66">
-        <f t="shared" si="1"/>
+      <c r="J5" s="57">
+        <f>A5</f>
         <v>4</v>
       </c>
-      <c r="K5" s="56" t="s">
+      <c r="K5" s="47" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="50">
+      <c r="A6" s="41">
         <v>5</v>
       </c>
-      <c r="B6" s="66">
+      <c r="B6" s="57">
         <v>2</v>
       </c>
-      <c r="C6" s="72">
+      <c r="C6" s="60">
         <v>20</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="45">
         <v>4.25</v>
       </c>
-      <c r="E6" s="54">
+      <c r="E6" s="45">
         <v>3.85</v>
       </c>
-      <c r="F6" s="54">
-        <f t="shared" si="0"/>
+      <c r="F6" s="45">
+        <f>C6*E6</f>
         <v>77</v>
       </c>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="66">
-        <f t="shared" si="1"/>
+      <c r="J6" s="57">
+        <f>A6</f>
         <v>5</v>
       </c>
       <c r="K6" s="9" t="s">
@@ -1069,1354 +1062,1419 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="50">
+      <c r="A7" s="41">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="57">
+        <v>1</v>
+      </c>
+      <c r="C7" s="60">
+        <v>10</v>
+      </c>
+      <c r="D7" s="39">
+        <v>5.95</v>
+      </c>
+      <c r="E7" s="39">
+        <v>5.25</v>
+      </c>
+      <c r="F7" s="45">
+        <f>C7*E7</f>
+        <v>52.5</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="57">
+        <f>A7</f>
+        <v>6</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="41">
+        <v>7</v>
+      </c>
+      <c r="B8" s="63">
+        <v>1</v>
+      </c>
+      <c r="C8" s="61">
+        <v>10</v>
+      </c>
+      <c r="D8" s="64">
+        <v>2.75</v>
+      </c>
+      <c r="E8" s="64">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F8" s="45">
+        <f>C8*E8</f>
+        <v>25.5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="57">
+        <f>A8</f>
+        <v>7</v>
+      </c>
+      <c r="K8" s="49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="41">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
         <v>0.1</v>
       </c>
-      <c r="C7" s="72">
-        <v>1</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="C9" s="60">
+        <v>1</v>
+      </c>
+      <c r="D9" s="45">
         <v>17.399999999999999</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E9" s="45">
         <v>17.399999999999999</v>
       </c>
-      <c r="F7" s="54">
-        <f t="shared" si="0"/>
+      <c r="F9" s="45">
+        <f>C9*E9</f>
         <v>17.399999999999999</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="G9" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="61" t="s">
+      <c r="H9" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I9" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="50">
-        <f t="shared" si="1"/>
+      <c r="J9" s="41">
+        <f>A9</f>
+        <v>8</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="41">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13">
+        <v>1</v>
+      </c>
+      <c r="C10" s="60">
+        <v>10</v>
+      </c>
+      <c r="D10" s="45">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E10" s="45">
+        <v>0.40239999999999998</v>
+      </c>
+      <c r="F10" s="45">
+        <f>C10*E10</f>
+        <v>4.024</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="41">
+        <f>A10</f>
+        <v>9</v>
+      </c>
+      <c r="K10" s="66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="41">
+        <v>10</v>
+      </c>
+      <c r="B11" s="41">
         <v>6</v>
       </c>
-      <c r="K7" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="50">
-        <v>7</v>
-      </c>
-      <c r="B8" s="68">
-        <v>1</v>
-      </c>
-      <c r="C8" s="73">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.40239999999999998</v>
-      </c>
-      <c r="F8" s="54">
-        <f t="shared" si="0"/>
-        <v>4.024</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="C11" s="60">
+        <v>100</v>
+      </c>
+      <c r="D11" s="39">
+        <v>0.36</v>
+      </c>
+      <c r="E11" s="39">
+        <v>0.12529999999999999</v>
+      </c>
+      <c r="F11" s="45">
+        <f>C11*E11</f>
+        <v>12.53</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="41">
+        <f>A11</f>
+        <v>10</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="41">
+        <v>11</v>
+      </c>
+      <c r="B12" s="17">
+        <v>1</v>
+      </c>
+      <c r="C12" s="60">
+        <v>10</v>
+      </c>
+      <c r="D12" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="45">
+        <v>0.2</v>
+      </c>
+      <c r="F12" s="45">
+        <f>C12*E12</f>
+        <v>2</v>
+      </c>
+      <c r="G12" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="41">
+        <f>A12</f>
+        <v>11</v>
+      </c>
+      <c r="K12" s="49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="41">
+        <v>12</v>
+      </c>
+      <c r="B13" s="57">
+        <v>8</v>
+      </c>
+      <c r="C13" s="60">
+        <v>100</v>
+      </c>
+      <c r="D13" s="45">
+        <v>0.11</v>
+      </c>
+      <c r="E13" s="45">
+        <v>3.8240000000000003E-2</v>
+      </c>
+      <c r="F13" s="45">
+        <f>C13*E13</f>
+        <v>3.8240000000000003</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="41">
+        <f>A13</f>
+        <v>12</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="25" customFormat="1">
+      <c r="A14" s="41">
         <v>13</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="B14" s="30">
+        <v>3</v>
+      </c>
+      <c r="C14" s="60">
+        <v>50</v>
+      </c>
+      <c r="D14" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="E14" s="45">
+        <v>0.37469999999999998</v>
+      </c>
+      <c r="F14" s="45">
+        <f>C14*E14</f>
+        <v>18.734999999999999</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="41">
+        <f>A14</f>
+        <v>13</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="29"/>
+    </row>
+    <row r="15" spans="1:12" s="36" customFormat="1">
+      <c r="A15" s="41">
         <v>14</v>
       </c>
-      <c r="I8" s="70" t="s">
+      <c r="B15" s="41">
+        <v>5</v>
+      </c>
+      <c r="C15" s="60">
+        <v>100</v>
+      </c>
+      <c r="D15" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="39">
+        <v>2.47E-2</v>
+      </c>
+      <c r="F15" s="45">
+        <f>C15*E15</f>
+        <v>2.4699999999999998</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="50">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="K8" s="71" t="s">
+      <c r="J15" s="41">
+        <f>A15</f>
+        <v>14</v>
+      </c>
+      <c r="K15" s="47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="41">
+        <v>15</v>
+      </c>
+      <c r="B16" s="26">
+        <v>1</v>
+      </c>
+      <c r="C16" s="60">
+        <v>10</v>
+      </c>
+      <c r="D16" s="27">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E16" s="45">
+        <v>0.54759999999999998</v>
+      </c>
+      <c r="F16" s="45">
+        <f>C16*E16</f>
+        <v>5.476</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="41">
+        <f>A16</f>
+        <v>15</v>
+      </c>
+      <c r="K16" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="41">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="50">
-        <v>8</v>
-      </c>
-      <c r="B9" s="14">
+      <c r="B17" s="32">
+        <v>1</v>
+      </c>
+      <c r="C17" s="60">
+        <v>10</v>
+      </c>
+      <c r="D17" s="45">
+        <v>2.56</v>
+      </c>
+      <c r="E17" s="45">
+        <v>2.56</v>
+      </c>
+      <c r="F17" s="45">
+        <f>C17*E17</f>
+        <v>25.6</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="41">
+        <f>A17</f>
+        <v>16</v>
+      </c>
+      <c r="K17" s="33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="36" customFormat="1">
+      <c r="A18" s="41">
+        <v>17</v>
+      </c>
+      <c r="B18" s="41">
+        <v>1</v>
+      </c>
+      <c r="C18" s="60">
+        <v>10</v>
+      </c>
+      <c r="D18" s="45">
+        <v>0.7</v>
+      </c>
+      <c r="E18" s="45">
+        <v>0.6</v>
+      </c>
+      <c r="F18" s="45">
+        <f>C18*E18</f>
         <v>6</v>
       </c>
-      <c r="C9" s="72">
-        <v>100</v>
-      </c>
-      <c r="D9" s="48">
-        <v>0.36</v>
-      </c>
-      <c r="E9" s="48">
-        <v>0.12529999999999999</v>
-      </c>
-      <c r="F9" s="54">
-        <f t="shared" si="0"/>
-        <v>12.53</v>
-      </c>
-      <c r="G9" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="30" t="s">
+      <c r="G18" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="50">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="50">
-        <v>9</v>
-      </c>
-      <c r="B10" s="16">
-        <v>1</v>
-      </c>
-      <c r="C10" s="72">
-        <v>10</v>
-      </c>
-      <c r="D10" s="54">
-        <v>0.2</v>
-      </c>
-      <c r="E10" s="54">
-        <v>0.2</v>
-      </c>
-      <c r="F10" s="54">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G10" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="60" t="s">
+      <c r="J18" s="41">
+        <f>A18</f>
         <v>17</v>
       </c>
-      <c r="I10" s="49" t="s">
+      <c r="K18" s="47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="41">
+        <v>18</v>
+      </c>
+      <c r="B19" s="34">
+        <v>1</v>
+      </c>
+      <c r="C19" s="60">
+        <v>10</v>
+      </c>
+      <c r="D19" s="39">
+        <v>0.25</v>
+      </c>
+      <c r="E19" s="39">
+        <v>0.2016</v>
+      </c>
+      <c r="F19" s="45">
+        <f>C19*E19</f>
+        <v>2.016</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="50">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="K10" s="18" t="s">
+      <c r="J19" s="41">
+        <f>A19</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="50">
-        <v>10</v>
-      </c>
-      <c r="B11" s="66">
-        <v>8</v>
-      </c>
-      <c r="C11" s="72">
-        <v>100</v>
-      </c>
-      <c r="D11" s="19">
-        <v>0.11</v>
-      </c>
-      <c r="E11" s="54">
-        <v>3.8240000000000003E-2</v>
-      </c>
-      <c r="F11" s="54">
-        <f t="shared" si="0"/>
-        <v>3.8240000000000003</v>
-      </c>
-      <c r="G11" s="19" t="s">
+      <c r="K19" s="35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="41">
         <v>19</v>
       </c>
-      <c r="H11" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="53" t="s">
+      <c r="B20" s="41">
+        <v>1</v>
+      </c>
+      <c r="C20" s="60">
+        <v>10</v>
+      </c>
+      <c r="D20" s="39">
+        <v>0.77</v>
+      </c>
+      <c r="E20" s="39">
+        <v>0.72</v>
+      </c>
+      <c r="F20" s="45">
+        <f>C20*E20</f>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="50">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="50">
-        <v>11</v>
-      </c>
-      <c r="B12" s="22">
-        <v>3</v>
-      </c>
-      <c r="C12" s="72">
-        <v>50</v>
-      </c>
-      <c r="D12" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="E12" s="54">
-        <v>0.37469999999999998</v>
-      </c>
-      <c r="F12" s="54">
-        <f t="shared" si="0"/>
-        <v>18.734999999999999</v>
-      </c>
-      <c r="G12" s="69" t="s">
+      <c r="J20" s="41">
+        <f>A20</f>
+        <v>19</v>
+      </c>
+      <c r="K20" s="47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="41">
         <v>20</v>
       </c>
-      <c r="H12" s="60" t="s">
+      <c r="B21" s="41">
+        <v>0.3</v>
+      </c>
+      <c r="C21" s="60">
+        <v>10</v>
+      </c>
+      <c r="D21" s="45">
+        <v>1.07</v>
+      </c>
+      <c r="E21" s="45">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="F21" s="45">
+        <f>C21*E21</f>
+        <v>9.44</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="41">
+        <f>A21</f>
+        <v>20</v>
+      </c>
+      <c r="K21" s="47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="36" customFormat="1">
+      <c r="A22" s="41">
         <v>21</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="B22" s="41">
+        <v>1</v>
+      </c>
+      <c r="C22" s="60">
+        <v>10</v>
+      </c>
+      <c r="D22" s="39">
+        <v>1.04</v>
+      </c>
+      <c r="E22" s="39">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="F22" s="45">
+        <f>C22*E22</f>
+        <v>9.92</v>
+      </c>
+      <c r="G22" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="50">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="K12" s="58" t="s">
+      <c r="J22" s="41">
+        <f>A22</f>
+        <v>21</v>
+      </c>
+      <c r="K22" s="47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="41">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="50">
-        <v>12</v>
-      </c>
-      <c r="B13" s="24">
-        <v>5</v>
-      </c>
-      <c r="C13" s="72">
-        <v>100</v>
-      </c>
-      <c r="D13" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="E13" s="48">
-        <v>2.47E-2</v>
-      </c>
-      <c r="F13" s="54">
-        <f t="shared" si="0"/>
-        <v>2.4699999999999998</v>
-      </c>
-      <c r="G13" s="49" t="s">
+      <c r="B23" s="41">
+        <v>1</v>
+      </c>
+      <c r="C23" s="60">
+        <v>10</v>
+      </c>
+      <c r="D23" s="39">
+        <v>0.24</v>
+      </c>
+      <c r="E23" s="39">
+        <v>0.192</v>
+      </c>
+      <c r="F23" s="45">
+        <f>C23*E23</f>
+        <v>1.92</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="41">
+        <f>A23</f>
+        <v>22</v>
+      </c>
+      <c r="K23" s="58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="36" customFormat="1">
+      <c r="A24" s="41">
         <v>23</v>
       </c>
-      <c r="H13" s="51" t="s">
+      <c r="B24" s="41">
+        <v>1</v>
+      </c>
+      <c r="C24" s="60">
+        <v>10</v>
+      </c>
+      <c r="D24" s="45">
+        <v>0.66</v>
+      </c>
+      <c r="E24" s="45">
+        <v>0.498</v>
+      </c>
+      <c r="F24" s="45">
+        <f>C24*E24</f>
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G24" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="41">
+        <f>A24</f>
+        <v>23</v>
+      </c>
+      <c r="K24" s="58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="36" customFormat="1">
+      <c r="A25" s="41">
         <v>24</v>
       </c>
-      <c r="I13" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="50">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="K13" s="25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="31" customFormat="1">
-      <c r="A14" s="50">
-        <v>13</v>
-      </c>
-      <c r="B14" s="36">
-        <v>1</v>
-      </c>
-      <c r="C14" s="72">
-        <v>10</v>
-      </c>
-      <c r="D14" s="54">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="E14" s="54">
-        <v>0.54759999999999998</v>
-      </c>
-      <c r="F14" s="54">
-        <f t="shared" si="0"/>
-        <v>5.476</v>
-      </c>
-      <c r="G14" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="50">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="K14" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" s="35"/>
-    </row>
-    <row r="15" spans="1:12" s="45" customFormat="1">
-      <c r="A15" s="50">
-        <v>14</v>
-      </c>
-      <c r="B15" s="50">
-        <v>1</v>
-      </c>
-      <c r="C15" s="72">
-        <v>10</v>
-      </c>
-      <c r="D15" s="54">
-        <v>2.56</v>
-      </c>
-      <c r="E15" s="54">
-        <v>2.56</v>
-      </c>
-      <c r="F15" s="54">
-        <f t="shared" si="0"/>
-        <v>25.6</v>
-      </c>
-      <c r="G15" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="50">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="K15" s="56" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="50">
-        <v>15</v>
-      </c>
-      <c r="B16" s="32">
-        <v>1</v>
-      </c>
-      <c r="C16" s="72">
-        <v>10</v>
-      </c>
-      <c r="D16" s="33">
-        <v>0.7</v>
-      </c>
-      <c r="E16" s="54">
-        <v>0.6</v>
-      </c>
-      <c r="F16" s="54">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G16" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="50">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="K16" s="34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="50">
-        <v>16</v>
-      </c>
-      <c r="B17" s="39">
-        <v>1</v>
-      </c>
-      <c r="C17" s="72">
-        <v>10</v>
-      </c>
-      <c r="D17" s="38">
-        <v>0.25</v>
-      </c>
-      <c r="E17" s="48">
-        <v>0.2016</v>
-      </c>
-      <c r="F17" s="54">
-        <f t="shared" si="0"/>
-        <v>2.016</v>
-      </c>
-      <c r="G17" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="50">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="K17" s="40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="45" customFormat="1">
-      <c r="A18" s="50">
-        <v>17</v>
-      </c>
-      <c r="B18" s="50">
-        <v>1</v>
-      </c>
-      <c r="C18" s="72">
-        <v>10</v>
-      </c>
-      <c r="D18" s="48">
-        <v>0.77</v>
-      </c>
-      <c r="E18" s="48">
-        <v>0.72</v>
-      </c>
-      <c r="F18" s="54">
-        <f t="shared" si="0"/>
-        <v>7.1999999999999993</v>
-      </c>
-      <c r="G18" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="I18" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="50">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="K18" s="56" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="50">
-        <v>18</v>
-      </c>
-      <c r="B19" s="42">
-        <v>0.3</v>
-      </c>
-      <c r="C19" s="72">
-        <v>10</v>
-      </c>
-      <c r="D19" s="43">
-        <v>1.07</v>
-      </c>
-      <c r="E19" s="54">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="F19" s="54">
-        <f t="shared" si="0"/>
-        <v>9.44</v>
-      </c>
-      <c r="G19" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="I19" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="50">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="K19" s="44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="50">
-        <v>19</v>
-      </c>
-      <c r="B20" s="50">
-        <v>1</v>
-      </c>
-      <c r="C20" s="72">
-        <v>10</v>
-      </c>
-      <c r="D20" s="48">
-        <v>1.04</v>
-      </c>
-      <c r="E20" s="48">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="F20" s="54">
-        <f t="shared" si="0"/>
-        <v>9.92</v>
-      </c>
-      <c r="G20" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="I20" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="50">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="K20" s="56" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="50">
-        <v>20</v>
-      </c>
-      <c r="B21" s="50">
-        <v>1</v>
-      </c>
-      <c r="C21" s="72">
-        <v>10</v>
-      </c>
-      <c r="D21" s="48">
-        <v>0.24</v>
-      </c>
-      <c r="E21" s="48">
-        <v>0.192</v>
-      </c>
-      <c r="F21" s="54">
-        <f t="shared" si="0"/>
-        <v>1.92</v>
-      </c>
-      <c r="G21" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="I21" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="50">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="K21" s="56" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="45" customFormat="1">
-      <c r="A22" s="50">
-        <v>21</v>
-      </c>
-      <c r="B22" s="50">
-        <v>1</v>
-      </c>
-      <c r="C22" s="72">
-        <v>10</v>
-      </c>
-      <c r="D22" s="54">
-        <v>0.66</v>
-      </c>
-      <c r="E22" s="54">
-        <v>0.498</v>
-      </c>
-      <c r="F22" s="54">
-        <f t="shared" si="0"/>
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="G22" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="I22" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="50">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="K22" s="56" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="50">
-        <v>22</v>
-      </c>
-      <c r="B23" s="66">
+      <c r="B25" s="57">
         <v>0.05</v>
       </c>
-      <c r="C23" s="72">
-        <v>1</v>
-      </c>
-      <c r="D23" s="48">
+      <c r="C25" s="60">
+        <v>1</v>
+      </c>
+      <c r="D25" s="39">
         <v>48.28</v>
       </c>
-      <c r="E23" s="48">
+      <c r="E25" s="39">
         <v>48.28</v>
       </c>
-      <c r="F23" s="54">
-        <f t="shared" si="0"/>
+      <c r="F25" s="45">
+        <f>C25*E25</f>
         <v>48.28</v>
       </c>
-      <c r="G23" s="54" t="s">
+      <c r="G25" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="H23" s="48"/>
-      <c r="I23" s="53" t="s">
+      <c r="H25" s="39"/>
+      <c r="I25" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="J23" s="66">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="K23" s="67" t="s">
+      <c r="J25" s="57">
+        <f>A25</f>
+        <v>24</v>
+      </c>
+      <c r="K25" s="58" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="45" customFormat="1">
-      <c r="A24" s="50">
-        <v>23</v>
-      </c>
-      <c r="B24" s="66">
-        <v>1</v>
-      </c>
-      <c r="C24" s="72">
-        <v>10</v>
-      </c>
-      <c r="D24" s="48">
-        <v>6.98</v>
-      </c>
-      <c r="E24" s="48">
-        <v>5.5</v>
-      </c>
-      <c r="F24" s="54">
-        <f t="shared" ref="F24" si="2">C24*E24</f>
-        <v>55</v>
-      </c>
-      <c r="G24" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="H24" s="74">
-        <v>1090</v>
-      </c>
-      <c r="I24" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="J24" s="66">
-        <f t="shared" ref="J24" si="3">A24</f>
-        <v>23</v>
-      </c>
-      <c r="K24" s="67" t="s">
-        <v>82</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:K23">
-    <sortCondition ref="I2:I23"/>
+  <sortState ref="A2:K25">
+    <sortCondition ref="I2:I25"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="K13" r:id="rId1"/>
-    <hyperlink ref="K15" r:id="rId2"/>
-    <hyperlink ref="K7" r:id="rId3"/>
-    <hyperlink ref="K11" r:id="rId4"/>
-    <hyperlink ref="K23" r:id="rId5"/>
+    <hyperlink ref="K15" r:id="rId1"/>
+    <hyperlink ref="K17" r:id="rId2"/>
+    <hyperlink ref="K9" r:id="rId3"/>
+    <hyperlink ref="K13" r:id="rId4"/>
+    <hyperlink ref="K25" r:id="rId5"/>
     <hyperlink ref="K5" r:id="rId6"/>
     <hyperlink ref="K6" r:id="rId7"/>
+    <hyperlink ref="K7" r:id="rId8"/>
+    <hyperlink ref="K8" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId8"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="46" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="57" customFormat="1">
-      <c r="A1" s="62" t="str">
+    <row r="1" spans="1:7" s="48" customFormat="1">
+      <c r="A1" s="53" t="str">
         <f>BOM!B1</f>
         <v>Qty per Kit</v>
       </c>
-      <c r="B1" s="62" t="str">
+      <c r="B1" s="53" t="str">
         <f>BOM!D1</f>
         <v>Unit
 Price</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="62" t="str">
+      <c r="E1" s="53" t="str">
         <f>BOM!C1</f>
         <v>Purchase Qty. (10 kits)</v>
       </c>
-      <c r="F1" s="62" t="str">
+      <c r="F1" s="53" t="str">
         <f>BOM!E1</f>
         <v>Qty. Price</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="53" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="50">
+      <c r="A2" s="41">
         <f>BOM!B2</f>
         <v>1</v>
       </c>
-      <c r="B2" s="50">
+      <c r="B2" s="41">
         <f>BOM!D2</f>
         <v>4.25</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="39">
         <f>A2*B2</f>
         <v>4.25</v>
       </c>
-      <c r="E2" s="65">
+      <c r="E2" s="56">
         <f>BOM!C2</f>
         <v>10</v>
       </c>
-      <c r="F2" s="48">
+      <c r="F2" s="39">
         <f>BOM!E2</f>
         <v>3.75</v>
       </c>
-      <c r="G2" s="48">
+      <c r="G2" s="39">
         <f>E2*F2</f>
         <v>37.5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="50">
+      <c r="A3" s="41">
         <f>BOM!B3</f>
         <v>1</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="41">
         <f>BOM!D3</f>
         <v>11.99</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="39">
         <f t="shared" ref="C3:C23" si="0">A3*B3</f>
         <v>11.99</v>
       </c>
-      <c r="E3" s="65">
+      <c r="E3" s="56">
         <f>BOM!C3</f>
         <v>10</v>
       </c>
-      <c r="F3" s="48">
+      <c r="F3" s="39">
         <f>BOM!E3</f>
         <v>11.05</v>
       </c>
-      <c r="G3" s="48">
+      <c r="G3" s="39">
         <f t="shared" ref="G3:G23" si="1">E3*F3</f>
         <v>110.5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="50">
+      <c r="A4" s="41">
         <f>BOM!B4</f>
         <v>1</v>
       </c>
-      <c r="B4" s="50">
+      <c r="B4" s="41">
         <f>BOM!D4</f>
         <v>2.5</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="39">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="E4" s="65">
+      <c r="E4" s="56">
         <f>BOM!C4</f>
         <v>10</v>
       </c>
-      <c r="F4" s="48">
+      <c r="F4" s="39">
         <f>BOM!E4</f>
         <v>2.35</v>
       </c>
-      <c r="G4" s="48">
+      <c r="G4" s="39">
         <f t="shared" si="1"/>
         <v>23.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="50">
+      <c r="A5" s="41">
         <f>BOM!B5</f>
         <v>2</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="41">
         <f>BOM!D5</f>
         <v>10.95</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="39">
         <f t="shared" si="0"/>
         <v>21.9</v>
       </c>
-      <c r="E5" s="65">
+      <c r="E5" s="56">
         <f>BOM!C5</f>
         <v>20</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="39">
         <f>BOM!E5</f>
         <v>10.050000000000001</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="39">
         <f t="shared" si="1"/>
         <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="50">
+      <c r="A6" s="41">
         <f>BOM!B6</f>
         <v>2</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="41">
         <f>BOM!D6</f>
         <v>4.25</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="39">
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
-      <c r="E6" s="65">
+      <c r="E6" s="56">
         <f>BOM!C6</f>
         <v>20</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="39">
         <f>BOM!E6</f>
         <v>3.85</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="39">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="50">
+      <c r="A7" s="41">
         <f>BOM!B7</f>
+        <v>1</v>
+      </c>
+      <c r="B7" s="41">
+        <f>BOM!D7</f>
+        <v>5.95</v>
+      </c>
+      <c r="C7" s="39">
+        <f t="shared" si="0"/>
+        <v>5.95</v>
+      </c>
+      <c r="E7" s="56">
+        <f>BOM!C7</f>
+        <v>10</v>
+      </c>
+      <c r="F7" s="39">
+        <f>BOM!E7</f>
+        <v>5.25</v>
+      </c>
+      <c r="G7" s="39">
+        <f t="shared" si="1"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="41">
+        <f>BOM!B8</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="41">
+        <f>BOM!D8</f>
+        <v>2.75</v>
+      </c>
+      <c r="C8" s="39">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="E8" s="56">
+        <f>BOM!C8</f>
+        <v>10</v>
+      </c>
+      <c r="F8" s="39">
+        <f>BOM!E8</f>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G8" s="39">
+        <f t="shared" si="1"/>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="41">
+        <f>BOM!B9</f>
         <v>0.1</v>
       </c>
-      <c r="B7" s="50">
-        <f>BOM!D7</f>
+      <c r="B9" s="41">
+        <f>BOM!D9</f>
         <v>17.399999999999999</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C9" s="39">
         <f t="shared" si="0"/>
         <v>1.74</v>
       </c>
-      <c r="E7" s="65">
-        <f>BOM!C7</f>
-        <v>1</v>
-      </c>
-      <c r="F7" s="48">
-        <f>BOM!E7</f>
+      <c r="E9" s="56">
+        <f>BOM!C9</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="39">
+        <f>BOM!E9</f>
         <v>17.399999999999999</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G9" s="39">
         <f t="shared" si="1"/>
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="50">
-        <f>BOM!B8</f>
-        <v>1</v>
-      </c>
-      <c r="B8" s="50">
-        <f>BOM!D8</f>
+    <row r="10" spans="1:7">
+      <c r="A10" s="41">
+        <f>BOM!B10</f>
+        <v>1</v>
+      </c>
+      <c r="B10" s="41">
+        <f>BOM!D10</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C10" s="39">
         <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="E8" s="65">
-        <f>BOM!C8</f>
-        <v>10</v>
-      </c>
-      <c r="F8" s="48">
-        <f>BOM!E8</f>
+      <c r="E10" s="56">
+        <f>BOM!C10</f>
+        <v>10</v>
+      </c>
+      <c r="F10" s="39">
+        <f>BOM!E10</f>
         <v>0.40239999999999998</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G10" s="39">
         <f t="shared" si="1"/>
         <v>4.024</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="50">
-        <f>BOM!B9</f>
+    <row r="11" spans="1:7">
+      <c r="A11" s="41">
+        <f>BOM!B11</f>
         <v>6</v>
       </c>
-      <c r="B9" s="50">
-        <f>BOM!D9</f>
+      <c r="B11" s="41">
+        <f>BOM!D11</f>
         <v>0.36</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C11" s="39">
         <f t="shared" si="0"/>
         <v>2.16</v>
       </c>
-      <c r="E9" s="65">
-        <f>BOM!C9</f>
+      <c r="E11" s="56">
+        <f>BOM!C11</f>
         <v>100</v>
       </c>
-      <c r="F9" s="48">
-        <f>BOM!E9</f>
+      <c r="F11" s="39">
+        <f>BOM!E11</f>
         <v>0.12529999999999999</v>
       </c>
-      <c r="G9" s="48">
+      <c r="G11" s="39">
         <f t="shared" si="1"/>
         <v>12.53</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="50">
-        <f>BOM!B10</f>
-        <v>1</v>
-      </c>
-      <c r="B10" s="50">
-        <f>BOM!D10</f>
+    <row r="12" spans="1:7">
+      <c r="A12" s="41">
+        <f>BOM!B12</f>
+        <v>1</v>
+      </c>
+      <c r="B12" s="41">
+        <f>BOM!D12</f>
         <v>0.2</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C12" s="39">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="E10" s="65">
-        <f>BOM!C10</f>
-        <v>10</v>
-      </c>
-      <c r="F10" s="48">
-        <f>BOM!E10</f>
+      <c r="E12" s="56">
+        <f>BOM!C12</f>
+        <v>10</v>
+      </c>
+      <c r="F12" s="39">
+        <f>BOM!E12</f>
         <v>0.2</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G12" s="39">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="50">
-        <f>BOM!B11</f>
+    <row r="13" spans="1:7">
+      <c r="A13" s="41">
+        <f>BOM!B13</f>
         <v>8</v>
       </c>
-      <c r="B11" s="50">
-        <f>BOM!D11</f>
+      <c r="B13" s="41">
+        <f>BOM!D13</f>
         <v>0.11</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C13" s="39">
         <f t="shared" si="0"/>
         <v>0.88</v>
       </c>
-      <c r="E11" s="65">
-        <f>BOM!C11</f>
+      <c r="E13" s="56">
+        <f>BOM!C13</f>
         <v>100</v>
       </c>
-      <c r="F11" s="48">
-        <f>BOM!E11</f>
+      <c r="F13" s="39">
+        <f>BOM!E13</f>
         <v>3.8240000000000003E-2</v>
       </c>
-      <c r="G11" s="48">
+      <c r="G13" s="39">
         <f t="shared" si="1"/>
         <v>3.8240000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="50">
-        <f>BOM!B12</f>
+    <row r="14" spans="1:7">
+      <c r="A14" s="41">
+        <f>BOM!B14</f>
         <v>3</v>
       </c>
-      <c r="B12" s="50">
-        <f>BOM!D12</f>
+      <c r="B14" s="41">
+        <f>BOM!D14</f>
         <v>0.8</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C14" s="39">
         <f t="shared" si="0"/>
         <v>2.4000000000000004</v>
       </c>
-      <c r="E12" s="65">
-        <f>BOM!C12</f>
+      <c r="E14" s="56">
+        <f>BOM!C14</f>
         <v>50</v>
       </c>
-      <c r="F12" s="48">
-        <f>BOM!E12</f>
+      <c r="F14" s="39">
+        <f>BOM!E14</f>
         <v>0.37469999999999998</v>
       </c>
-      <c r="G12" s="48">
+      <c r="G14" s="39">
         <f t="shared" si="1"/>
         <v>18.734999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="50">
-        <f>BOM!B13</f>
+    <row r="15" spans="1:7">
+      <c r="A15" s="41">
+        <f>BOM!B15</f>
         <v>5</v>
       </c>
-      <c r="B13" s="50">
-        <f>BOM!D13</f>
+      <c r="B15" s="41">
+        <f>BOM!D15</f>
         <v>0.1</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C15" s="39">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E13" s="65">
-        <f>BOM!C13</f>
+      <c r="E15" s="56">
+        <f>BOM!C15</f>
         <v>100</v>
       </c>
-      <c r="F13" s="48">
-        <f>BOM!E13</f>
+      <c r="F15" s="39">
+        <f>BOM!E15</f>
         <v>2.47E-2</v>
       </c>
-      <c r="G13" s="48">
+      <c r="G15" s="39">
         <f t="shared" si="1"/>
         <v>2.4699999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="50">
-        <f>BOM!B14</f>
-        <v>1</v>
-      </c>
-      <c r="B14" s="50">
-        <f>BOM!D14</f>
+    <row r="16" spans="1:7">
+      <c r="A16" s="41">
+        <f>BOM!B16</f>
+        <v>1</v>
+      </c>
+      <c r="B16" s="41">
+        <f>BOM!D16</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C16" s="39">
         <f t="shared" si="0"/>
         <v>0.57999999999999996</v>
       </c>
-      <c r="E14" s="65">
-        <f>BOM!C14</f>
-        <v>10</v>
-      </c>
-      <c r="F14" s="48">
-        <f>BOM!E14</f>
+      <c r="E16" s="56">
+        <f>BOM!C16</f>
+        <v>10</v>
+      </c>
+      <c r="F16" s="39">
+        <f>BOM!E16</f>
         <v>0.54759999999999998</v>
       </c>
-      <c r="G14" s="48">
+      <c r="G16" s="39">
         <f t="shared" si="1"/>
         <v>5.476</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="50">
-        <f>BOM!B15</f>
-        <v>1</v>
-      </c>
-      <c r="B15" s="50">
-        <f>BOM!D15</f>
+    <row r="17" spans="1:7">
+      <c r="A17" s="41">
+        <f>BOM!B17</f>
+        <v>1</v>
+      </c>
+      <c r="B17" s="41">
+        <f>BOM!D17</f>
         <v>2.56</v>
       </c>
-      <c r="C15" s="48">
+      <c r="C17" s="39">
         <f t="shared" si="0"/>
         <v>2.56</v>
       </c>
-      <c r="E15" s="65">
-        <f>BOM!C15</f>
-        <v>10</v>
-      </c>
-      <c r="F15" s="48">
-        <f>BOM!E15</f>
+      <c r="E17" s="56">
+        <f>BOM!C17</f>
+        <v>10</v>
+      </c>
+      <c r="F17" s="39">
+        <f>BOM!E17</f>
         <v>2.56</v>
       </c>
-      <c r="G15" s="48">
+      <c r="G17" s="39">
         <f t="shared" si="1"/>
         <v>25.6</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="50">
-        <f>BOM!B16</f>
-        <v>1</v>
-      </c>
-      <c r="B16" s="50">
-        <f>BOM!D16</f>
+    <row r="18" spans="1:7">
+      <c r="A18" s="41">
+        <f>BOM!B18</f>
+        <v>1</v>
+      </c>
+      <c r="B18" s="41">
+        <f>BOM!D18</f>
         <v>0.7</v>
       </c>
-      <c r="C16" s="48">
+      <c r="C18" s="39">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="E16" s="65">
-        <f>BOM!C16</f>
-        <v>10</v>
-      </c>
-      <c r="F16" s="48">
-        <f>BOM!E16</f>
+      <c r="E18" s="56">
+        <f>BOM!C18</f>
+        <v>10</v>
+      </c>
+      <c r="F18" s="39">
+        <f>BOM!E18</f>
         <v>0.6</v>
       </c>
-      <c r="G16" s="48">
+      <c r="G18" s="39">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="50">
-        <f>BOM!B17</f>
-        <v>1</v>
-      </c>
-      <c r="B17" s="50">
-        <f>BOM!D17</f>
+    <row r="19" spans="1:7">
+      <c r="A19" s="41">
+        <f>BOM!B19</f>
+        <v>1</v>
+      </c>
+      <c r="B19" s="41">
+        <f>BOM!D19</f>
         <v>0.25</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C19" s="39">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="E17" s="65">
-        <f>BOM!C17</f>
-        <v>10</v>
-      </c>
-      <c r="F17" s="48">
-        <f>BOM!E17</f>
+      <c r="E19" s="56">
+        <f>BOM!C19</f>
+        <v>10</v>
+      </c>
+      <c r="F19" s="39">
+        <f>BOM!E19</f>
         <v>0.2016</v>
       </c>
-      <c r="G17" s="48">
+      <c r="G19" s="39">
         <f t="shared" si="1"/>
         <v>2.016</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="50">
-        <f>BOM!B18</f>
-        <v>1</v>
-      </c>
-      <c r="B18" s="50">
-        <f>BOM!D18</f>
+    <row r="20" spans="1:7">
+      <c r="A20" s="41">
+        <f>BOM!B20</f>
+        <v>1</v>
+      </c>
+      <c r="B20" s="41">
+        <f>BOM!D20</f>
         <v>0.77</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C20" s="39">
         <f t="shared" si="0"/>
         <v>0.77</v>
       </c>
-      <c r="E18" s="65">
-        <f>BOM!C18</f>
-        <v>10</v>
-      </c>
-      <c r="F18" s="48">
-        <f>BOM!E18</f>
+      <c r="E20" s="56">
+        <f>BOM!C20</f>
+        <v>10</v>
+      </c>
+      <c r="F20" s="39">
+        <f>BOM!E20</f>
         <v>0.72</v>
       </c>
-      <c r="G18" s="48">
+      <c r="G20" s="39">
         <f t="shared" si="1"/>
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="50">
-        <f>BOM!B19</f>
+    <row r="21" spans="1:7" s="36" customFormat="1">
+      <c r="A21" s="41">
+        <f>BOM!B21</f>
         <v>0.3</v>
       </c>
-      <c r="B19" s="50">
-        <f>BOM!D19</f>
+      <c r="B21" s="41">
+        <f>BOM!D21</f>
         <v>1.07</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C21" s="39">
         <f t="shared" si="0"/>
         <v>0.32100000000000001</v>
       </c>
-      <c r="E19" s="65">
-        <f>BOM!C19</f>
-        <v>10</v>
-      </c>
-      <c r="F19" s="48">
-        <f>BOM!E19</f>
+      <c r="E21" s="56">
+        <f>BOM!C21</f>
+        <v>10</v>
+      </c>
+      <c r="F21" s="39">
+        <f>BOM!E21</f>
         <v>0.94399999999999995</v>
       </c>
-      <c r="G19" s="48">
+      <c r="G21" s="39">
         <f t="shared" si="1"/>
         <v>9.44</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="50">
-        <f>BOM!B20</f>
-        <v>1</v>
-      </c>
-      <c r="B20" s="50">
-        <f>BOM!D20</f>
+    <row r="22" spans="1:7" s="36" customFormat="1">
+      <c r="A22" s="41">
+        <f>BOM!B22</f>
+        <v>1</v>
+      </c>
+      <c r="B22" s="41">
+        <f>BOM!D22</f>
         <v>1.04</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C22" s="39">
         <f t="shared" si="0"/>
         <v>1.04</v>
       </c>
-      <c r="E20" s="65">
-        <f>BOM!C20</f>
-        <v>10</v>
-      </c>
-      <c r="F20" s="48">
-        <f>BOM!E20</f>
+      <c r="E22" s="56">
+        <f>BOM!C22</f>
+        <v>10</v>
+      </c>
+      <c r="F22" s="39">
+        <f>BOM!E22</f>
         <v>0.99199999999999999</v>
       </c>
-      <c r="G20" s="48">
+      <c r="G22" s="39">
         <f t="shared" si="1"/>
         <v>9.92</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="45" customFormat="1">
-      <c r="A21" s="50">
-        <f>BOM!B21</f>
-        <v>1</v>
-      </c>
-      <c r="B21" s="50">
-        <f>BOM!D21</f>
+    <row r="23" spans="1:7" s="36" customFormat="1">
+      <c r="A23" s="41">
+        <f>BOM!B23</f>
+        <v>1</v>
+      </c>
+      <c r="B23" s="41">
+        <f>BOM!D23</f>
         <v>0.24</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C23" s="39">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="E21" s="65">
-        <f>BOM!C21</f>
-        <v>10</v>
-      </c>
-      <c r="F21" s="48">
-        <f>BOM!E21</f>
+      <c r="E23" s="56">
+        <f>BOM!C23</f>
+        <v>10</v>
+      </c>
+      <c r="F23" s="39">
+        <f>BOM!E23</f>
         <v>0.192</v>
       </c>
-      <c r="G21" s="48">
+      <c r="G23" s="39">
         <f t="shared" si="1"/>
         <v>1.92</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="45" customFormat="1">
-      <c r="A22" s="50">
-        <f>BOM!B22</f>
-        <v>1</v>
-      </c>
-      <c r="B22" s="50">
-        <f>BOM!D22</f>
+    <row r="24" spans="1:7">
+      <c r="A24" s="41">
+        <f>BOM!B24</f>
+        <v>1</v>
+      </c>
+      <c r="B24" s="41">
+        <f>BOM!D24</f>
         <v>0.66</v>
       </c>
-      <c r="C22" s="48">
-        <f t="shared" si="0"/>
+      <c r="C24" s="39">
+        <f t="shared" ref="C24:C25" si="2">A24*B24</f>
         <v>0.66</v>
       </c>
-      <c r="E22" s="65">
-        <f>BOM!C22</f>
-        <v>10</v>
-      </c>
-      <c r="F22" s="48">
-        <f>BOM!E22</f>
+      <c r="D24" s="36"/>
+      <c r="E24" s="56">
+        <f>BOM!C24</f>
+        <v>10</v>
+      </c>
+      <c r="F24" s="39">
+        <f>BOM!E24</f>
         <v>0.498</v>
       </c>
-      <c r="G22" s="48">
-        <f t="shared" si="1"/>
+      <c r="G24" s="39">
+        <f t="shared" ref="G24:G25" si="3">E24*F24</f>
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="45" customFormat="1">
-      <c r="A23" s="50">
-        <f>BOM!B23</f>
+    <row r="25" spans="1:7" s="36" customFormat="1">
+      <c r="A25" s="41">
+        <f>BOM!B25</f>
         <v>0.05</v>
       </c>
-      <c r="B23" s="50">
-        <f>BOM!D23</f>
+      <c r="B25" s="41">
+        <f>BOM!D25</f>
         <v>48.28</v>
       </c>
-      <c r="C23" s="48">
-        <f t="shared" si="0"/>
+      <c r="C25" s="39">
+        <f t="shared" si="2"/>
         <v>2.4140000000000001</v>
       </c>
-      <c r="E23" s="65">
-        <f>BOM!C23</f>
-        <v>1</v>
-      </c>
-      <c r="F23" s="48">
-        <f>BOM!E23</f>
+      <c r="E25" s="56">
+        <f>BOM!C25</f>
+        <v>1</v>
+      </c>
+      <c r="F25" s="39">
+        <f>BOM!E25</f>
         <v>48.28</v>
       </c>
-      <c r="G23" s="48">
-        <f t="shared" si="1"/>
+      <c r="G25" s="39">
+        <f t="shared" si="3"/>
         <v>48.28</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="50">
-        <f>BOM!B24</f>
-        <v>1</v>
-      </c>
-      <c r="B24" s="50">
-        <f>BOM!D24</f>
-        <v>6.98</v>
-      </c>
-      <c r="C24" s="48">
-        <f t="shared" ref="C24" si="2">A24*B24</f>
-        <v>6.98</v>
-      </c>
-      <c r="D24" s="45"/>
-      <c r="E24" s="65">
-        <f>BOM!C24</f>
-        <v>10</v>
-      </c>
-      <c r="F24" s="48">
-        <f>BOM!E24</f>
-        <v>5.5</v>
-      </c>
-      <c r="G24" s="48">
-        <f t="shared" ref="G24" si="3">E24*F24</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="50"/>
-      <c r="B25" s="62" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="41"/>
+      <c r="B26" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="63">
+      <c r="C26" s="54">
         <f>SUM(C2:C24)</f>
-        <v>74.085000000000008</v>
-      </c>
-      <c r="E25" s="48"/>
-      <c r="F25" s="63" t="s">
+        <v>73.391000000000005</v>
+      </c>
+      <c r="E26" s="39"/>
+      <c r="F26" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="63">
+      <c r="G26" s="54">
         <f>SUM(G2:G24)</f>
-        <v>686.31500000000005</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="E26" s="48"/>
-      <c r="F26" s="63" t="s">
+        <v>661.03499999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="E27" s="39"/>
+      <c r="F27" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="G26" s="63">
-        <f>G25/10</f>
-        <v>68.631500000000003</v>
+      <c r="G27" s="54">
+        <f>G26/10</f>
+        <v>66.103499999999997</v>
       </c>
     </row>
   </sheetData>

--- a/Robot Board v003 BOM v2.xlsx
+++ b/Robot Board v003 BOM v2.xlsx
@@ -828,16 +828,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="46" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="7" style="36" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="40.7109375" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="34.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -893,7 +893,7 @@
         <v>3.75</v>
       </c>
       <c r="F2" s="6">
-        <f>C2*E2</f>
+        <f t="shared" ref="F2:F25" si="0">C2*E2</f>
         <v>37.5</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -906,7 +906,7 @@
         <v>11</v>
       </c>
       <c r="J2" s="5">
-        <f>A2</f>
+        <f t="shared" ref="J2:J25" si="1">A2</f>
         <v>1</v>
       </c>
       <c r="K2" s="7" t="s">
@@ -930,7 +930,7 @@
         <v>11.05</v>
       </c>
       <c r="F3" s="45">
-        <f>C3*E3</f>
+        <f t="shared" si="0"/>
         <v>110.5</v>
       </c>
       <c r="G3" s="22" t="s">
@@ -943,7 +943,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="41">
-        <f>A3</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K3" s="23" t="s">
@@ -967,7 +967,7 @@
         <v>2.35</v>
       </c>
       <c r="F4" s="45">
-        <f>C4*E4</f>
+        <f t="shared" si="0"/>
         <v>23.5</v>
       </c>
       <c r="G4" s="45" t="s">
@@ -980,7 +980,7 @@
         <v>11</v>
       </c>
       <c r="J4" s="41">
-        <f>A4</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K4" s="47" t="s">
@@ -1004,7 +1004,7 @@
         <v>10.050000000000001</v>
       </c>
       <c r="F5" s="45">
-        <f>C5*E5</f>
+        <f t="shared" si="0"/>
         <v>201</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -1017,7 +1017,7 @@
         <v>11</v>
       </c>
       <c r="J5" s="57">
-        <f>A5</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K5" s="47" t="s">
@@ -1041,7 +1041,7 @@
         <v>3.85</v>
       </c>
       <c r="F6" s="45">
-        <f>C6*E6</f>
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="G6" s="45" t="s">
@@ -1054,7 +1054,7 @@
         <v>11</v>
       </c>
       <c r="J6" s="57">
-        <f>A6</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K6" s="9" t="s">
@@ -1078,7 +1078,7 @@
         <v>5.25</v>
       </c>
       <c r="F7" s="45">
-        <f>C7*E7</f>
+        <f t="shared" si="0"/>
         <v>52.5</v>
       </c>
       <c r="G7" s="45" t="s">
@@ -1091,7 +1091,7 @@
         <v>11</v>
       </c>
       <c r="J7" s="57">
-        <f>A7</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K7" s="10" t="s">
@@ -1115,7 +1115,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="F8" s="45">
-        <f>C8*E8</f>
+        <f t="shared" si="0"/>
         <v>25.5</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -1128,7 +1128,7 @@
         <v>11</v>
       </c>
       <c r="J8" s="57">
-        <f>A8</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K8" s="49" t="s">
@@ -1152,7 +1152,7 @@
         <v>17.399999999999999</v>
       </c>
       <c r="F9" s="45">
-        <f>C9*E9</f>
+        <f t="shared" si="0"/>
         <v>17.399999999999999</v>
       </c>
       <c r="G9" s="45" t="s">
@@ -1165,7 +1165,7 @@
         <v>47</v>
       </c>
       <c r="J9" s="41">
-        <f>A9</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="K9" s="12" t="s">
@@ -1189,7 +1189,7 @@
         <v>0.40239999999999998</v>
       </c>
       <c r="F10" s="45">
-        <f>C10*E10</f>
+        <f t="shared" si="0"/>
         <v>4.024</v>
       </c>
       <c r="G10" s="45" t="s">
@@ -1202,7 +1202,7 @@
         <v>15</v>
       </c>
       <c r="J10" s="41">
-        <f>A10</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="K10" s="66" t="s">
@@ -1226,7 +1226,7 @@
         <v>0.12529999999999999</v>
       </c>
       <c r="F11" s="45">
-        <f>C11*E11</f>
+        <f t="shared" si="0"/>
         <v>12.53</v>
       </c>
       <c r="G11" s="40" t="s">
@@ -1239,7 +1239,7 @@
         <v>15</v>
       </c>
       <c r="J11" s="41">
-        <f>A11</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="K11" s="15" t="s">
@@ -1263,7 +1263,7 @@
         <v>0.2</v>
       </c>
       <c r="F12" s="45">
-        <f>C12*E12</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G12" s="59" t="s">
@@ -1276,7 +1276,7 @@
         <v>15</v>
       </c>
       <c r="J12" s="41">
-        <f>A12</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="K12" s="49" t="s">
@@ -1300,7 +1300,7 @@
         <v>3.8240000000000003E-2</v>
       </c>
       <c r="F13" s="45">
-        <f>C13*E13</f>
+        <f t="shared" si="0"/>
         <v>3.8240000000000003</v>
       </c>
       <c r="G13" s="45" t="s">
@@ -1313,7 +1313,7 @@
         <v>15</v>
       </c>
       <c r="J13" s="41">
-        <f>A13</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="K13" s="19" t="s">
@@ -1337,7 +1337,7 @@
         <v>0.37469999999999998</v>
       </c>
       <c r="F14" s="45">
-        <f>C14*E14</f>
+        <f t="shared" si="0"/>
         <v>18.734999999999999</v>
       </c>
       <c r="G14" s="45" t="s">
@@ -1350,7 +1350,7 @@
         <v>15</v>
       </c>
       <c r="J14" s="41">
-        <f>A14</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="K14" s="31" t="s">
@@ -1375,7 +1375,7 @@
         <v>2.47E-2</v>
       </c>
       <c r="F15" s="45">
-        <f>C15*E15</f>
+        <f t="shared" si="0"/>
         <v>2.4699999999999998</v>
       </c>
       <c r="G15" s="40" t="s">
@@ -1388,7 +1388,7 @@
         <v>15</v>
       </c>
       <c r="J15" s="41">
-        <f>A15</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="K15" s="47" t="s">
@@ -1412,7 +1412,7 @@
         <v>0.54759999999999998</v>
       </c>
       <c r="F16" s="45">
-        <f>C16*E16</f>
+        <f t="shared" si="0"/>
         <v>5.476</v>
       </c>
       <c r="G16" s="45" t="s">
@@ -1425,7 +1425,7 @@
         <v>15</v>
       </c>
       <c r="J16" s="41">
-        <f>A16</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="K16" s="28" t="s">
@@ -1449,7 +1449,7 @@
         <v>2.56</v>
       </c>
       <c r="F17" s="45">
-        <f>C17*E17</f>
+        <f t="shared" si="0"/>
         <v>25.6</v>
       </c>
       <c r="G17" s="39" t="s">
@@ -1462,7 +1462,7 @@
         <v>15</v>
       </c>
       <c r="J17" s="41">
-        <f>A17</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="K17" s="33" t="s">
@@ -1486,7 +1486,7 @@
         <v>0.6</v>
       </c>
       <c r="F18" s="45">
-        <f>C18*E18</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G18" s="45" t="s">
@@ -1499,7 +1499,7 @@
         <v>15</v>
       </c>
       <c r="J18" s="41">
-        <f>A18</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="K18" s="47" t="s">
@@ -1523,7 +1523,7 @@
         <v>0.2016</v>
       </c>
       <c r="F19" s="45">
-        <f>C19*E19</f>
+        <f t="shared" si="0"/>
         <v>2.016</v>
       </c>
       <c r="G19" s="39" t="s">
@@ -1536,7 +1536,7 @@
         <v>15</v>
       </c>
       <c r="J19" s="41">
-        <f>A19</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="K19" s="35" t="s">
@@ -1560,7 +1560,7 @@
         <v>0.72</v>
       </c>
       <c r="F20" s="45">
-        <f>C20*E20</f>
+        <f t="shared" si="0"/>
         <v>7.1999999999999993</v>
       </c>
       <c r="G20" s="39" t="s">
@@ -1573,7 +1573,7 @@
         <v>15</v>
       </c>
       <c r="J20" s="41">
-        <f>A20</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="K20" s="47" t="s">
@@ -1597,7 +1597,7 @@
         <v>0.94399999999999995</v>
       </c>
       <c r="F21" s="45">
-        <f>C21*E21</f>
+        <f t="shared" si="0"/>
         <v>9.44</v>
       </c>
       <c r="G21" s="45" t="s">
@@ -1610,7 +1610,7 @@
         <v>15</v>
       </c>
       <c r="J21" s="41">
-        <f>A21</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="K21" s="47" t="s">
@@ -1634,7 +1634,7 @@
         <v>0.99199999999999999</v>
       </c>
       <c r="F22" s="45">
-        <f>C22*E22</f>
+        <f t="shared" si="0"/>
         <v>9.92</v>
       </c>
       <c r="G22" s="39" t="s">
@@ -1647,7 +1647,7 @@
         <v>15</v>
       </c>
       <c r="J22" s="41">
-        <f>A22</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="K22" s="47" t="s">
@@ -1671,7 +1671,7 @@
         <v>0.192</v>
       </c>
       <c r="F23" s="45">
-        <f>C23*E23</f>
+        <f t="shared" si="0"/>
         <v>1.92</v>
       </c>
       <c r="G23" s="39" t="s">
@@ -1684,7 +1684,7 @@
         <v>15</v>
       </c>
       <c r="J23" s="41">
-        <f>A23</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="K23" s="58" t="s">
@@ -1708,7 +1708,7 @@
         <v>0.498</v>
       </c>
       <c r="F24" s="45">
-        <f>C24*E24</f>
+        <f t="shared" si="0"/>
         <v>4.9800000000000004</v>
       </c>
       <c r="G24" s="45" t="s">
@@ -1721,7 +1721,7 @@
         <v>15</v>
       </c>
       <c r="J24" s="41">
-        <f>A24</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="K24" s="58" t="s">
@@ -1745,7 +1745,7 @@
         <v>48.28</v>
       </c>
       <c r="F25" s="45">
-        <f>C25*E25</f>
+        <f t="shared" si="0"/>
         <v>48.28</v>
       </c>
       <c r="G25" s="45" t="s">
@@ -1756,7 +1756,7 @@
         <v>74</v>
       </c>
       <c r="J25" s="57">
-        <f>A25</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="K25" s="58" t="s">
@@ -1779,7 +1779,7 @@
     <hyperlink ref="K8" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
 
